--- a/Excel Data/VenderList.xlsx
+++ b/Excel Data/VenderList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joint\OneDrive - Texas State University\001 Personal\Label Maker Repository\Label-maker\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{1C3FD6C9-6201-4460-AFDE-35AF6F51FBE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{44793D70-94A1-487A-A84C-4D8CEA807A2D}"/>
+  <xr:revisionPtr revIDLastSave="944" documentId="8_{1C3FD6C9-6201-4460-AFDE-35AF6F51FBE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5FE81037-CE94-4861-B5B0-9809C6A7352A}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{D7BFC16D-22D6-49C8-BA1E-EF929EC021E1}"/>
+    <workbookView xWindow="-9900" yWindow="6765" windowWidth="21600" windowHeight="11385" xr2:uid="{D7BFC16D-22D6-49C8-BA1E-EF929EC021E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="254">
   <si>
     <t>Vender</t>
   </si>
@@ -163,6 +163,636 @@
   </si>
   <si>
     <t>Coilcraft Inc</t>
+  </si>
+  <si>
+    <t>Conti auto Sys Inc. - Frenstat P. R.; Czech Republic</t>
+  </si>
+  <si>
+    <t>Conti Temic microelectronic - Nuernberg, Germany</t>
+  </si>
+  <si>
+    <t>Conti Temic microelectronic GmbH - Ingoistadt, Germany</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Toulouse, FR</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Cuautia</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Guadalajara</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Guadalajara (Periferico Address)</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Changchun</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Czech</t>
+  </si>
+  <si>
+    <t>Continental Automotive - Romania SRL - Timisoara</t>
+  </si>
+  <si>
+    <t>Continental Automotive Systems - Sibiu, Romania</t>
+  </si>
+  <si>
+    <t>Continental Automotive Systems - Tian Jin</t>
+  </si>
+  <si>
+    <t>Continental Automotive Systems - Timisoara, Romania</t>
+  </si>
+  <si>
+    <t>Continental Automotive Systems, Inc - Deer Park Model Shop</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>Continental Automotive Systems, Inc - Nogales</t>
+  </si>
+  <si>
+    <t>Continental Automotive Systems, Inc - Elmea</t>
+  </si>
+  <si>
+    <t>Continental Brasil Industria - Brazil</t>
+  </si>
+  <si>
+    <t>Continental Corporation Location - Huntsvill</t>
+  </si>
+  <si>
+    <t>Continental Temic Electronic - Philippines</t>
+  </si>
+  <si>
+    <t>Continental Corporation Location - Ichon, South Korea</t>
+  </si>
+  <si>
+    <t>Continental Temic Electronic (Phils) Calamba</t>
+  </si>
+  <si>
+    <t>Continental / Siemens VDO - Regensburg</t>
+  </si>
+  <si>
+    <t>Cypress Semiconductor Corporation</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>Delo Industries Kiebstoffe GmbH&amp;Co. K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delphi Automotiv Systems Austria </t>
+  </si>
+  <si>
+    <t>Delphi Packard electric systems</t>
+  </si>
+  <si>
+    <t>Dempsey industries INC.</t>
+  </si>
+  <si>
+    <t>Digi key corp</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Inc. </t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>Glenn Grien</t>
+  </si>
+  <si>
+    <t>Diversified Converting Technologies</t>
+  </si>
+  <si>
+    <t>Dynamic Electronics Co. Ltd</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>Dynaplas LTD.</t>
+  </si>
+  <si>
+    <t>DBV Elektronik GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Elantas Beck GmbH</t>
+  </si>
+  <si>
+    <t>Elec &amp; Eltek</t>
+  </si>
+  <si>
+    <t>Ellington Innovative Technology Company Ltd</t>
+  </si>
+  <si>
+    <t>Elna America Inc (Now par of Taiyo Yuden)</t>
+  </si>
+  <si>
+    <t>Em Devices USA (owned by Kemet)</t>
+  </si>
+  <si>
+    <t>Em Microelectronic-Marin SA</t>
+  </si>
+  <si>
+    <t>Ensinger Gmbh</t>
+  </si>
+  <si>
+    <t>EPCOS (Now TDK)</t>
+  </si>
+  <si>
+    <t>EPT GmbH</t>
+  </si>
+  <si>
+    <t>Erwin Quarder Inc.</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>Joe Vega - NPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES Plastics </t>
+  </si>
+  <si>
+    <t>First Metals and plastics</t>
+  </si>
+  <si>
+    <t>Foxlink Internatonal Inc.</t>
+  </si>
+  <si>
+    <t>Fridrichs &amp; Rath</t>
+  </si>
+  <si>
+    <t>Fruilpress SAMP S.p.a</t>
+  </si>
+  <si>
+    <t>Futrue Electronic Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Haven Gasket Company </t>
+  </si>
+  <si>
+    <t>GTR Enterprieses</t>
+  </si>
+  <si>
+    <t>GUL Technologies LTD.</t>
+  </si>
+  <si>
+    <t>Haesealer Metall Technik GmH - HMT</t>
+  </si>
+  <si>
+    <t>Hans Fleig Gmbh</t>
+  </si>
+  <si>
+    <t>Hatch Stamping Company</t>
+  </si>
+  <si>
+    <t>HDK America Inc (See Hokuriku)</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HellermannTyton Corporation </t>
+  </si>
+  <si>
+    <t>Henkel Corporation(Henkel Electron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henkel Electronic Materials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heraeus Material Technology </t>
+  </si>
+  <si>
+    <t>Hisco Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoover Precision Products </t>
+  </si>
+  <si>
+    <t>Humiseal Division Chase Corp</t>
+  </si>
+  <si>
+    <t>Infastech Decorah LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infineon Technologies </t>
+  </si>
+  <si>
+    <t>Integrated Silicon Solution, Inc. (ISSI)</t>
+  </si>
+  <si>
+    <t>Interplex Electronic Hangzhou</t>
+  </si>
+  <si>
+    <t>Interplex NAS Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRC </t>
+  </si>
+  <si>
+    <t>IRISO USA Inc.</t>
+  </si>
+  <si>
+    <t>Gleen Grien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabellenhuette </t>
+  </si>
+  <si>
+    <t>Paul Markel</t>
+  </si>
+  <si>
+    <t>ITT Cannon Corporation</t>
+  </si>
+  <si>
+    <t>Jakson Die Casting, LLC (Keyston Jaskson Die Casting, LLC) (Formerly Internet)</t>
+  </si>
+  <si>
+    <t>Jae Electronics</t>
+  </si>
+  <si>
+    <t>JD Norman Industires</t>
+  </si>
+  <si>
+    <t>KCE America Inc</t>
+  </si>
+  <si>
+    <t>KDS America (Daishinku)</t>
+  </si>
+  <si>
+    <t>Kemet Electronics Corp</t>
+  </si>
+  <si>
+    <t>Kester US</t>
+  </si>
+  <si>
+    <t>Hisco</t>
+  </si>
+  <si>
+    <t>KOA Speer Electronics Inc</t>
+  </si>
+  <si>
+    <t>Krayden, INC</t>
+  </si>
+  <si>
+    <t>Kushan Yuanrnao Electornics (GBM)</t>
+  </si>
+  <si>
+    <t>Kuroda Electic USA Inc. (SunCon) (Beginning Feb 2016 will supply Susumu Parts instead of Endrich)</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>Kyocera International, Inc</t>
+  </si>
+  <si>
+    <t>Laird Technologies (PA)</t>
+  </si>
+  <si>
+    <t>Garrett Greien</t>
+  </si>
+  <si>
+    <t>Linear Technology corp</t>
+  </si>
+  <si>
+    <t>Littlefuse Inc</t>
+  </si>
+  <si>
+    <t>Mac Arthur Corporation</t>
+  </si>
+  <si>
+    <t>Makrite Parts Inc</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansfield Manfacturing Company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marian Fort worth </t>
+  </si>
+  <si>
+    <t>Marian, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matsuo Electronics </t>
+  </si>
+  <si>
+    <t>Mjaxim Intergrated Products INC.</t>
+  </si>
+  <si>
+    <t>Meiko Electronics America, INC.</t>
+  </si>
+  <si>
+    <t>Garrett Grien</t>
+  </si>
+  <si>
+    <t>Melexis GmbH</t>
+  </si>
+  <si>
+    <t>Baul Merkel</t>
+  </si>
+  <si>
+    <t>Mesit &amp; Roeders v.o.s.</t>
+  </si>
+  <si>
+    <t>Metal Tech (Minneapolis Die casting, LLC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Crystal </t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>Microchip technology incorpated</t>
+  </si>
+  <si>
+    <t>Micron Semiconductor Products INC.</t>
+  </si>
+  <si>
+    <t>Mitsubishie Electric Surope B.V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Metal &amp; Refining LTD </t>
+  </si>
+  <si>
+    <t>Molex Connector Corporation</t>
+  </si>
+  <si>
+    <t>mouser Electronics (Disty for Vishay)</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>Murata Elecktronik GmbH</t>
+  </si>
+  <si>
+    <t>Mursix Corporation(previously Twoson Tools)</t>
+  </si>
+  <si>
+    <t>NAN YA Printed Circuit Board Corpor</t>
+  </si>
+  <si>
+    <t>NDK America INC</t>
+  </si>
+  <si>
+    <t>Nedic America Corp</t>
+  </si>
+  <si>
+    <t>Nedec Mexico S.A.de C.V</t>
+  </si>
+  <si>
+    <t>Nexperia USA Inc</t>
+  </si>
+  <si>
+    <t>NGK Europe / Japan GMBH</t>
+  </si>
+  <si>
+    <t>ngk Spark Plugs Usa Inc</t>
+  </si>
+  <si>
+    <t>Nichicon America Corp</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Nifco America Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nissan Trading corporation Americas </t>
+  </si>
+  <si>
+    <t>NuCo2 (Bought Praxair Co2 business)</t>
+  </si>
+  <si>
+    <t>Bill King</t>
+  </si>
+  <si>
+    <t>NXp Semiconductors USA Inc</t>
+  </si>
+  <si>
+    <t>Pace Industries Div of Leggett</t>
+  </si>
+  <si>
+    <t>Panasonic Industries Company</t>
+  </si>
+  <si>
+    <t>Panasonic Industrial Devices Sales</t>
+  </si>
+  <si>
+    <t>Parker Hannifin Corporation</t>
+  </si>
+  <si>
+    <t>Perfection Spring &amp; Stamping corp</t>
+  </si>
+  <si>
+    <t>PHB Die casting Inc</t>
+  </si>
+  <si>
+    <t>Poeppelmann GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Poeppelmann plastics USA LLC</t>
+  </si>
+  <si>
+    <t>Praxair Distribution INC</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>Praxair Inc</t>
+  </si>
+  <si>
+    <t>Quantum Piastics (Master molder porducts corp)</t>
+  </si>
+  <si>
+    <t>Reliant gases LTD</t>
+  </si>
+  <si>
+    <t>Renesas Technology America, Inc.</t>
+  </si>
+  <si>
+    <t>Gienn Grein</t>
+  </si>
+  <si>
+    <t>Robert Bosch Corp</t>
+  </si>
+  <si>
+    <t>ROHM Corp</t>
+  </si>
+  <si>
+    <t>SAE power Inc</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics America</t>
+  </si>
+  <si>
+    <t>Schreiner Group GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweizer Electronics AG </t>
+  </si>
+  <si>
+    <t>Semiconductor componets industires (On Semi)</t>
+  </si>
+  <si>
+    <t>Senju Comteck Corp</t>
+  </si>
+  <si>
+    <t>SFS Intec. Inc.</t>
+  </si>
+  <si>
+    <t>Shanghai FL Dai-ichi Autiomotive</t>
+  </si>
+  <si>
+    <t>Shanghai Rongzhen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shin-etsu Silicones of America </t>
+  </si>
+  <si>
+    <t>Spansion LLC</t>
+  </si>
+  <si>
+    <t>Stackpole Electronic Inc (Ktronics)</t>
+  </si>
+  <si>
+    <t>Steicroelectronics</t>
+  </si>
+  <si>
+    <t>Sumida America Inc</t>
+  </si>
+  <si>
+    <t>Suzhou Chunxing Precision</t>
+  </si>
+  <si>
+    <t>Swoboda CZ S.r.O</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden USA Inc (old v/c 333091)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDK Corp of America </t>
+  </si>
+  <si>
+    <t>Te Connectivity (Was Deutshch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teledyne Dalsa </t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Thermoset lord chem prods opers</t>
+  </si>
+  <si>
+    <t>Toshiba America Electronic</t>
+  </si>
+  <si>
+    <t>Trend Technologies LCC</t>
+  </si>
+  <si>
+    <t>Trend Technologies LCC (Mexico)</t>
+  </si>
+  <si>
+    <t>Tripod Overseas Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Tro Manufacturing Co. Inc.</t>
+  </si>
+  <si>
+    <t>Twin City Die Casting Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyco </t>
+  </si>
+  <si>
+    <t>Unitech PCB corp (Shanghai Unitech)</t>
+  </si>
+  <si>
+    <t>United Chemi Con INC (Nippon Chemi Con)</t>
+  </si>
+  <si>
+    <t>Zoomie Marchtel</t>
+  </si>
+  <si>
+    <t>Vacumschemlze GmbH &amp; Co EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vectron International </t>
+  </si>
+  <si>
+    <t>Velocity Electronics</t>
+  </si>
+  <si>
+    <t>Distibutor</t>
+  </si>
+  <si>
+    <t>Viasystems Technologies Corp. LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrett Grein </t>
+  </si>
+  <si>
+    <t>Vishay Americas Inc</t>
+  </si>
+  <si>
+    <t>John Richard Gentry</t>
+  </si>
+  <si>
+    <t>VolaPlast GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>W. L Gore &amp; Associates, INC.</t>
+  </si>
+  <si>
+    <t>Wacker Chemical Corporation</t>
+  </si>
+  <si>
+    <t>Walter Soehner GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>Waukesha Metal Products</t>
+  </si>
+  <si>
+    <t>Wevo-Chemie GmbH</t>
+  </si>
+  <si>
+    <t>Wooshung A.D.M. Co. Ltd</t>
+  </si>
+  <si>
+    <t>Wus Printed circuit Co LTD</t>
+  </si>
+  <si>
+    <t>Wuxi Mi Technologies Co.Ltd</t>
+  </si>
+  <si>
+    <t>Xilinx (Will start using summer 2015)</t>
+  </si>
+  <si>
+    <t>Yazaki North America</t>
+  </si>
+  <si>
+    <t>Yoder Industries</t>
   </si>
 </sst>
 </file>
@@ -204,9 +834,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,17 +1152,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A82AB0-17BD-4D41-AAFE-F19971FA701C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
@@ -559,7 +1190,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>338925</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -576,7 +1207,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>337033</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -593,7 +1224,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>335654</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -610,7 +1241,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>369815</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -627,7 +1258,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>333740</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -644,7 +1275,7 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>337034</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -661,7 +1292,7 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>350975</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -678,7 +1309,7 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>331184</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -695,7 +1326,7 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>161624</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -712,7 +1343,7 @@
       <c r="A11" s="1">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>330655</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -729,7 +1360,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>342238</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -746,7 +1377,7 @@
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>335549</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -763,7 +1394,7 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>331247</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -780,7 +1411,7 @@
       <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>340510</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -797,7 +1428,7 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>331131</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -814,7 +1445,7 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>370319</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -831,7 +1462,7 @@
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>300071</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -848,7 +1479,7 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>352524</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -865,7 +1496,7 @@
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>315971</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -882,7 +1513,7 @@
       <c r="A21" s="1">
         <v>0</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>358376</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -899,7 +1530,7 @@
       <c r="A22" s="1">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>330342</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -916,12 +1547,4218 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>331292</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>349616</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>325484</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>71072</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>724034</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>320202</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>345446</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>351462</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>345244</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>360226</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>344911</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>981426</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>339965</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>344911</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>339853</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>339854</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>345614</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>354466</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>349043</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>352526</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>324208</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>324208</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>558422</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>332838</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>376374</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>750022</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>338722</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>332787</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>332534</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10005942</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>336664</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>357181</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>558405</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>100706</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>316325</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>339944</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2">
+        <v>372309</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>330937</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>384958</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>336991</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>128937</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>335955</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>310054</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10005580</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
+        <v>337028</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>336765</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2">
+        <v>334552</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <v>500104</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>351891</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>331733</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>338643</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>336981</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2">
+        <v>352561</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2">
+        <v>306270</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2">
+        <v>355017</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2">
+        <v>502130</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2">
+        <v>352065</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>533753</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2">
+        <v>339236</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2">
+        <v>359060</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>360652</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2">
+        <v>330689</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2">
+        <v>367109</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2">
+        <v>994822</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2">
+        <v>335656</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2">
+        <v>331338</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2">
+        <v>334902</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2">
+        <v>337659</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2">
+        <v>347159</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2">
+        <v>336265</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2">
+        <v>347053</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2">
+        <v>304203</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2000832</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2">
+        <v>352960</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2">
+        <v>332655</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="2">
+        <v>340001</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>352016</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2">
+        <v>335682</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2">
+        <v>326781</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2">
+        <v>352590</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2">
+        <v>330967</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2">
+        <v>353430</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2">
+        <v>375637</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2">
+        <v>351953</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2">
+        <v>385996</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2">
+        <v>330700</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2">
+        <v>332744</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2">
+        <v>330361</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2">
+        <v>359484</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2">
+        <v>335808</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2">
+        <v>350021</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2">
+        <v>335432</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2">
+        <v>319269</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2">
+        <v>330595</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2">
+        <v>332707</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2">
+        <v>347114</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2">
+        <v>323411</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2">
+        <v>367172</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2">
+        <v>352959</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2">
+        <v>333998</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2">
+        <v>331937</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
+      <c r="B124" s="2">
+        <v>334850</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2">
+        <v>38296</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2">
+        <v>338682</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2">
+        <v>337781</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" s="2">
+        <v>332106</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2">
+        <v>331215</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="2">
+        <v>359440</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2">
+        <v>366383</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B132" s="2">
+        <v>351078</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133" s="2">
+        <v>332210</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="2">
+        <v>347828</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2">
+        <v>385008</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="2">
+        <v>382750</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+      <c r="B137" s="2">
+        <v>372380</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2">
+        <v>339739</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="2">
+        <v>332091</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+      <c r="B140" s="2">
+        <v>558498</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="2">
+        <v>376607</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" s="2">
+        <v>356365</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2">
+        <v>331653</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="2">
+        <v>339449</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2">
+        <v>331872</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="2">
+        <v>330854</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>0</v>
+      </c>
+      <c r="B147" s="2">
+        <v>334321</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="2">
+        <v>331204</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>0</v>
+      </c>
+      <c r="B149" s="2">
+        <v>332370</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
+      <c r="B150" s="2">
+        <v>324265</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2">
+        <v>380321</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2">
+        <v>380233</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2">
+        <v>333363</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+      <c r="B154" s="2">
+        <v>332354</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>0</v>
+      </c>
+      <c r="B155" s="2">
+        <v>339342</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="2">
+        <v>337362</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="2">
+        <v>338420</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
+      <c r="B158" s="2">
+        <v>331137</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
+      <c r="B159" s="2">
+        <v>336720</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="2">
+        <v>334859</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+      <c r="B161" s="2">
+        <v>91367</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162" s="2">
+        <v>877605</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163" s="2">
+        <v>335788</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+      <c r="B164" s="2">
+        <v>343961</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2">
+        <v>341345</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2">
+        <v>359459</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+      <c r="B167" s="2">
+        <v>385121</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
+      <c r="B168" s="2">
+        <v>336949</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
+      <c r="B169" s="2">
+        <v>339659</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+      <c r="B170" s="2">
+        <v>353088</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="B171" s="2">
+        <v>331806</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" s="2">
+        <v>339273</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="2">
+        <v>38335</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+      <c r="B174" s="2">
+        <v>350038</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
+      <c r="B175" s="2">
+        <v>340776</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
+      <c r="B176" s="2">
+        <v>331275</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
+      <c r="B177" s="2">
+        <v>335436</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="2">
+        <v>363544</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2002046</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2">
+        <v>352600</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="2">
+        <v>335589</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+      <c r="B182" s="2">
+        <v>343867</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183" s="2">
+        <v>370939</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+      <c r="B184" s="2">
+        <v>351099</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
+      <c r="B185" s="2">
+        <v>500124</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="2">
+        <v>356244</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2001583</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+      <c r="B188" s="2">
+        <v>333751</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189" s="2">
+        <v>332077</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="B190" s="2">
+        <v>350540</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>0</v>
+      </c>
+      <c r="B191" s="2">
+        <v>334539</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>0</v>
+      </c>
+      <c r="B192" s="2">
+        <v>329496</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
+      <c r="B193" s="2">
+        <v>352530</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+      <c r="B194" s="2">
+        <v>331103</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="2">
+        <v>357000</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196" s="2">
+        <v>331413</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="2">
+        <v>336600</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
+      <c r="B198" s="2">
+        <v>300392</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="2">
+        <v>334866</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="B200" s="2">
+        <v>300512</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="2">
+        <v>387027</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>1</v>
+      </c>
+      <c r="B202" s="2">
+        <v>333020</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203" s="2">
+        <v>357238</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="2">
+        <v>332850</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="2">
+        <v>336697</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
+      <c r="B206" s="2">
+        <v>353382</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="2"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="2"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="2"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="2"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="2"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="2"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="2"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="2"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="2"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="2"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="2"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="2"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="2"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="2"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="2"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="2"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="2"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="2"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="2"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="2"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="2"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="2"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="2"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="2"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="2"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="2"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="2"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="2"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="2"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="2"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="2"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="2"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="2"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="2"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="2"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="2"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="2"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="2"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="2"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="2"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="2"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="2"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="2"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="2"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="2"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="2"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="2"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="2"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="2"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="2"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="2"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="2"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="2"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="2"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="2"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="2"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="2"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="2"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="2"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="2"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="2"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="2"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="2"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="2"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="2"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="2"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="2"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="2"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="2"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="2"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="2"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="2"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="2"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="2"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="2"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="2"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="2"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="2"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="2"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="2"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="2"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="2"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="2"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="2"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="2"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="2"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="2"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="2"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="2"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="2"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="2"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="2"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="2"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="2"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="2"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="2"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="2"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="2"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="2"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="2"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="2"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="2"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="2"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="2"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="2"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="2"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="2"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="2"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="2"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="2"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="2"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="2"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="2"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="2"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="2"/>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="2"/>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="2"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="2"/>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="2"/>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="2"/>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="2"/>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="2"/>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="2"/>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="2"/>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="2"/>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="2"/>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="2"/>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="2"/>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="2"/>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="2"/>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="2"/>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="2"/>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="2"/>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" s="2"/>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="2"/>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="2"/>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="2"/>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="2"/>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" s="2"/>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" s="2"/>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" s="2"/>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" s="2"/>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" s="2"/>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="2"/>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="2"/>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
